--- a/output/Total_time_range_data/河北省/廊坊市_学习考察.xlsx
+++ b/output/Total_time_range_data/河北省/廊坊市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,638 +436,700 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>12</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>河北省党政代表团到新疆学习考察</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/133091.aspx</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['9月10日至12日，省委书记、省人大常委会主任倪岳峰率河北省党政代表团到新疆学习考察，深入贯彻习近平总书记在听取新疆维吾尔自治区党委和政府、新疆生产建设兵团工作汇报时的重要讲话精神，完整准确全面贯彻新时代党的治疆方略，扎实推动对口援疆和冀新合作迈上新台阶。新疆维吾尔自治区党委书记、新疆生产建设兵团党委第一书记、第一政委马兴瑞，自治区党委副书记、自治区主席艾尔肯·吐尼亚孜，自治区人大常委会主任祖木热提·吾布力，自治区党委副书记、兵团政委李邑飞等参加有关活动。', '在新疆期间，河北省党政代表团先后到尉犁县达西村爱国主义教育基地、尉犁县古勒巴格村、尉犁县食用菌示范园、库尔勒市第二十三中学、新疆邢美矿业有限公司、库尔勒上库高新技术产业开发区石油石化园、铁门关职业技术学院、铁门关市人民医院、库尔勒市孔雀河生态公园等，详细了解新疆经济社会发展和我省对口援疆情况，深入谋划下一阶段冀新合作重点工作。', '9月11日上午，河北省·新疆维吾尔自治区及新疆生产建设兵团对口支援工作座谈会在库尔勒召开。马兴瑞说，习近平总书记时隔一年再次亲临新疆并发表重要讲话，为我们完整准确全面贯彻新时代党的治疆方略、更好建设美丽新疆提供了科学指南，也为深化对口援疆工作注入了新的强大动力。河北始终把对口援疆摆在重要位置，坚持“输血”“造血”并行、财力智力并重、硬件软件并进，为新疆改革发展稳定作出了重要贡献，我代表自治区党委、政府、兵团和全区各族干部群众表示衷心感谢。当前，冀新两地正聚焦总书记赋予的战略定位，牢记嘱托、感恩奋进，燕赵大地经济强省、美丽河北建设不断迈出坚实步伐，天山南北高质量发展势头强劲、美丽新疆建设扎实推进，两地深化交流合作面临新机遇。希望双方以深化对口援疆为抓手，携手服务国家战略，深化京津冀协同发展、雄安新区高标准高质量建设和丝绸之路经济带核心区建设交流对接。携手推进产业发展，推动能源资源、产业技术等优势深度结合，在拓平台、育产业、建园区、落项目上取得新成效。携手巩固民族团结，深入开展文化润疆精品工程，把中华民族共同体意识根植各族群众心灵深处。新疆将扛牢主体责任，积极完善合作机制，推进重点项目落地，推动冀新合作发展开创新局面。', '倪岳峰说，新疆工作在党和国家工作全局中具有特殊重要的地位，事关强国建设、民族复兴大局。在以习近平同志为核心的党中央坚强领导下，自治区党委、政府、兵团和全区各族干部群众牢牢扭住新疆工作总目标，扎实推进事关长治久安的根本性、基础性、长远性工作，经济社会发展和民生改善取得显著成效，创造的经验做法值得河北认真学习借鉴。河北各地各部门要深入学习贯彻习近平总书记重要指示精神和党中央决策部署，把对口援疆作为坚定拥护“两个确立”、坚决做到“两个维护”的实际行动，持续强化政治自觉、思想自觉、行动自觉，紧密对接巴州、兵团第二师实际需求，深入实施民生援疆、产业援疆、人才援疆和文化润疆，扎实推动对口援疆工作迈上新台阶。要抓住用好京津冀协同发展、雄安新区建设发展、“一带一路”核心区建设等重大机遇，进一步完善两地合作机制，不断深化经贸合作、文旅合作、生态合作，携手推动高质量发展，共同为全面建设社会主义现代化国家作出积极贡献。', '座谈会上，两省区和兵团领导分别介绍了经济社会发展和对口支援工作情况。会后举行了签约和援助资金交接仪式。', '9月12日，倪岳峰与我省援疆干部人才代表进行座谈交流，认真听取大家发言，希望大家持之以恒强化政治担当，锲而不舍抓好自身建设，把对口援疆各项工作做深做细做实。各级各有关部门要及时了解援疆干部人才的实际需求，做好服务保障工作，切实解决大家的后顾之忧，不断提升对口援疆工作质量和水平。', '自治区和兵团领导陈伟俊、哈丹·卡宾、木合亚提·加尔木哈买提、杨勇、张文胜，省领导张超超、柯俊、武卫东、严鹏程、张成中、吴晓华、康彦民参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>比肩携手共赢未来廊坊市党政代表团赴北京市大兴区学习考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-08-18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/122687.aspx</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['比肩携手 共赢未来 廊坊市党政代表团赴北京市大兴区学习考察 王有国刘学亮王立彤李国勇参加活动', '为深入贯彻习近平总书记关于京津冀协同发展的重要指示批示精神，全面落实省委十届二次全会精神、省推进京津冀协同发展工作专题会议精神，加快推动廊坊在京津冀协同发展上走在全省前列，8月17日下午，市委书记王立彤，市委副书记、代市长李国勇率领我市党政代表团赴北京市大兴区学习考察、主动对接，共同研究加快同城一体化发展的思路举措，坚决一点、快一点推动协同发展重大国家战略取得新突破。', '在大兴区委书记王有国，区委副书记、区长刘学亮的带领下，王立彤、李国勇一行先后来到北京自贸区创新服务中心、大兴国际氢能示范区、大兴区营商服务中心，学习考察大兴临空经济区规划建设、重点产业园区发展运营以及争取省级赋权、提高行政审批效率等方面的先进理念和典型经验。看到大兴区改革发展成效显著、产业项目朝气蓬勃，我市党政代表团成员备受启发、倍增干劲，更加坚定了与大兴区携手比肩、协同发展的信心和决心。', '学习考察期间，两地召开协同发展座谈会，共叙友情、共话合作、共解难题、共谋发展。王有国、王立彤讲话。刘学亮、李国勇分别介绍两地经济社会发展情况。', '王有国代表大兴区委、区政府对廊坊党政代表团一行的到来表示热烈欢迎。他说，廊坊市与大兴区地缘相接、人缘相亲，地域一体、文化一脉。京津冀协同发展战略实施以来，廊坊市与大兴区坚决落实重大国家战略，协同发展迅速推进、不断深入，两地建立了密切的合作关系，积淀了深厚感情，结出了丰硕成果。廊坊市与大兴区属于京津冀协同发展中部核心功能区，处在联结“一核”“两翼”的关键节点上，是京津冀最具发展活力的地区，肩负着打造协同发展“桥头堡”的光荣使命和重大责任。两地共享机遇，合作空间广阔、潜力巨大。希望两地携手共进、并肩奋斗，在产业协同、重大活动服务保障、体制机制创新等方面进一步深化务实合作，全面拓展合作领域，共同做好京津冀协同发展这篇大文章。', '王立彤代表廊坊市委、市政府，对大兴区长期以来给予廊坊经济社会发展和廊坊临空经济区规划建设的支持表示衷心感谢。他说，北京大兴国际机场临空经济区是全国唯一跨省级行政区划的临空经济区，携手打造临空经济区的全国样板为双方协同协作创造了无限空间。廊坊市委、市政府将站在政治和全局的高度，对标对表大兴区经验做法，在数字赋能、平台建设、审批效能等方面加快创新突破。希望双方以共建共管共享临空经济区为纽带，进一步健全主要领导定期会商和重大事项通报机制，在跨界交通连接、韧性城市建设、产业发展一体化、公共政策协同、通勤人员服务、行政资源配置等方面加强对接协作，推动一批标志性项目尽快落地实施，以实干实政实绩实效开创廊坊市与大兴区协同发展新局面。', '大兴区领导石银峰、罗伯明、何景涛，廊坊市领导张海川、张平、丁凌、马志永、李清涛参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>我省党政代表团到天津市学习考察学习借鉴天津经验深化冀津交流合作推动京津冀协</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/128183.aspx</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['我省党政代表团到天津市学习考察 学习借鉴天津经验 深化冀津交流合作 推动京津冀协同发展向更高层次迈进 陈敏尔张工喻云林王常松与倪岳峰王正谱廉毅敏参加活动 - 廊坊市人民政府', '3月22日，我省党政代表团到天津市学习考察，深入贯彻习近平总书记重要指示精神和党中央决策部署，全面落实党的二十大和全国两会精神，学习借鉴天津经验，深化冀津交流合作，推动京津冀协同发展向更高层次迈进。', '天津市委书记陈敏尔，市委副书记、市长张工，市人大常委会主任喻云林，市政协主席王常松；省委书记、省人大常委会主任倪岳峰，省委副书记、省长王正谱，省政协主席廉毅敏等参加活动。', '在天津市学习考察期间，我省党政代表团来到滨海新区“美丽滨城”会客厅，认真学习天津市在新区规划建设、港产城融合、科技研发、先进制造等方面经验。在天津港第二集装箱码头，代表团详细听取天津港优化营商环境、建设智慧港口和绿色港口等情况介绍，现场观看集装箱码头自动化作业。国家超级计算天津中心依托先进技术，实现了超级计算、云计算、大数据、人工智能和物联网的深度融合。代表团深入了解天河系列超算创新成果，观看新一代超级计算机展示，学习借鉴天津市在推动超级计算、壮大数字经济等方面的宝贵经验。', '在两省市工作交流座谈会上，陈敏尔指出，推动京津冀协同发展是以习近平同志为核心的党中央作出的重大决策部署。我们要深入领会、全面贯彻习近平总书记重要讲话和重要指示批示精神，把党的二十大精神行动化、具体化、实践化，推动京津冀协同发展走深走实，全力支持服务雄安新区建设，以签署战略合作协议为契机，推动津冀合作取得更大成效。共下港口集群“一盘棋”，加强津冀港口高效协作，优化资源配置，完善功能分工，以港口带物流、以物流带经贸、以经贸带产业，实现错位发展、联动发展、融合发展，共同构建现代化的津冀港口群。共抓产业协作“一条链”，共同承接北京非首都功能疏解，加强科技创新协同，推动重点产业建链强链、重点企业成龙配套、重点园区深化合作，促进产业集群发展。共建基础设施“一张网”，畅通轨道交通网、公路交通网、信息通信网，强化运营组织和管理调度协同，增强区域运输服务能力。共筑生态环境“一道屏”，持续开展大气、水、土壤污染跨界联合治理，培育壮大循环经济、生态产业和节能环保产业，协力扩大生态空间、推动绿色发展，共同建设环首都生态屏障带。共推公共服务“一卡通”，推出更多通办事项，进一步扩大医保、社保、养老等事项互联互通范围，深化商贸文旅合作，不断增强两地企业、人民群众的获得感。', '倪岳峰说，京津冀协同发展是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略。九年来，从夯基垒台、立柱架梁到加速推进、纵深发展，取得历史性成就、发生历史性变革，充分彰显了习近平总书记高超的政治智慧、深邃的历史眼光、宏阔的战略视野、强烈的使命担当，让我们切身领悟到“两个确立”的决定性意义。在学习考察中，天津市先进的城市规划建设理念、辐射全球的一流大港、生机勃勃的现代化产业，让河北省党政代表团深感震撼、深受启发。我们要向天津全面学习，进一步解放思想、奋发进取，加快建设经济强省、美丽河北。要认真学习天津全面建设社会主义现代化大都市宝贵经验，扎实推动中国式现代化在河北展现美好图景。认真学习天津港产城融合发展宝贵经验，大力推动港口转型升级，积极推进通关便利化，加快建设临港产业强省，构建向海图强、向海发展新格局。认真学习天津建设现代化产业体系宝贵经验，深入推进创新驱动发展，加快制造业高端化、智能化、绿色化发展，大力推动战略性新兴产业融合集群发展。认真学习天津打造一流营商环境宝贵经验，坚持以深化改革增强动力活力，着力建设高标准市场体系，支持民营经济健康发展、高质量发展。', '座谈会上，张工、王正谱代表两省市共同签署了《天津市人民政府河北省人民政府进一步加强战略合作框架协议》。', '天津市领导刘桂平、王力军、范少军、张玲，天津市政府秘书长孟庆松；省领导张超超、张国华、葛海蛟、武卫东、董仚生、董兆伟、康彦民，省政府秘书长朱浩文参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>我省党政代表团到北京市学习考察学习借鉴北京经验深化京冀务实合作共同推进重大</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/127394.aspx</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['我省党政代表团到北京市学习考察 学习借鉴北京经验 深化京冀务实合作 共同推进重大国家战略实施取得新成效 尹力殷勇李秀领与倪岳峰王正谱等参加活动 - 廊坊市人民政府', '2月20日，我省党政代表团到北京市学习考察，深入贯彻党的二十大精神，全面落实习近平总书记关于京津冀协同发展重要指示，学习借鉴北京经验，深化京冀务实合作，共同推进重大国家战略实施取得新成效。', '北京市委书记尹力，市委副书记、市长殷勇，市人大常委会主任李秀领，与省委书记、省人大常委会主任倪岳峰，省委副书记、省长王正谱等参加活动。', '在北京市学习考察期间，我省党政代表团来到北京证券交易所，认真听取北交所建设运行和支持河北企业上市情况介绍。在中关村国家自主创新示范区展示中心，代表团观看创新成果展，了解示范区创新发展历程、创新创业生态、前沿技术成果和新技术新产品应用等。在小米集团，代表团走进产品展厅和技术实验室，实地察看最新产品和科技成果。在北京城市副中心，代表团详细听取规划建设情况介绍，与北京市有关负责同志深入交流。', '在两省市工作交流座谈会上，尹力、倪岳峰讲话。殷勇、王正谱分别介绍两省市经济社会发展和推进协同发展有关情况。', '尹力感谢河北省长期以来对北京市的大力支持。他说，今年是全面贯彻落实党的二十大精神的开局之年，京津冀协同发展已进入全面深化实施的新阶段。北京与河北地域一体、文化一脉、人缘相亲，新征程上要共同深入贯彻习近平总书记关于京津冀协同发展的重要讲话和指示批示精神，把握协同发展历史主动，增强责任感使命感紧迫感，坚持优势互补、互利共赢，深化区域合作，使协同发展的成果更多更好地惠及京冀两地人民群众，携手推动中国式现代化在区域协同发展中形成更多生动实践。支持雄安新区建设，统筹全市优质资源，加强常态化对接，支持部分在京高校、医疗机构、科研机构、企事业单位等向雄安新区转移，以首善标准落实好战略合作协议，继续深化教育、医疗、职业培训等领域合作，支持北京市属国企参与雄安新区规划建设、城市管理、生态治理，引导更多北京科技创新资源在雄安新区布局发展。高水平规划建设好北京通州区与河北廊坊北三县一体化高质量发展示范区和北京大兴国际机场临空经济区，打造省际交界地区一体化发展典范。加快建设定位清晰、协调联动的现代化首都都市圈，带动交通、生态、产业、公共服务等重点领域协同发展取得新突破。', '倪岳峰感谢北京市多年来给予河北的支持帮助。他说，在以习近平同志为核心的党中央坚强领导下，北京市坚决履行政治责任，大力支持河北规划建设雄安新区、打赢脱贫攻坚战、加快产业转型升级，河北人民始终铭记在心。河北省坚决服从服务大局，积极承接北京产业、企业、人口转移，全力打造首都“两区”，圆满完成北京冬奥会筹办举办任务，努力在对接京津、服务京津中加快发展自己。京津冀协同发展充分彰显了“两个确立”的决定性意义，激励全省上下矢志不渝沿着习近平总书记指引的方向奋勇前进。河北将紧紧扭住疏解北京非首都功能这个“牛鼻子”，加快建设一体化交通网络，强化生态环境联建联防联治，深化产业对接和创新协作，推动京冀重点领域合作取得新突破。要聚焦建设以首都为核心的世界级城市群，积极服务北京城市副中心建设，高标准高质量建设雄安新区，大力推动张北地区发展，合力打造北京新的“两翼”和河北“两翼”。要携手推进中国式现代化展现美好图景，在建设新型能源体系、发展现代商贸物流产业、壮大数字经济、推动养老事业和养老产业协同发展等方面加强合作，为全面建设社会主义现代化国家开好局起好步贡献力量。', '北京市领导夏林茂、赵磊、于英杰、刘宇辉、崔述强，市政府党组成员穆鹏；省领导张超超、张国华、葛海蛟、武卫东、董仚生、吴晓华、胡启生、董兆伟、冉万祥、康彦民，省政府秘书长朱浩文参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>市领导赴合肥市学习考察招商引资先进经验</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2021-10-16</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/114552.aspx</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['10月15日，市委常委、常务副市长张海川率领各县（市、区）、廊坊开发区、廊坊临空经济区及市直有关部门负责同志赴安徽省合肥市学习考察招商引资先进经验，为廊坊市优化招商引资、加快动能转换寻求新路径。', '期间，张海川一行先后深入江淮蔚来先进制造基地、中国声谷、科大讯飞调研考察，并与合肥市委常委、副市长路军举行工作座谈。', '张海川指出，随着京津冀协同发展深入实施，廊坊全域都处于重大国家战略支撑带动之下。希望通过此次学习考察，能够与合肥市进一步加强沟通、深化合作，携手建立招商引资、产业合作长效机制。他强调，参会的各级各部门要认真学习合肥市的先进经验，结合廊坊发展实际，切实将学习成果转化为提升招商水平的强大动力和推动项目建设的务实举措，积极创新实践、开拓奋进，推动我市招商引资和项目工作再上新台阶。', '路军表示，廊坊市天然区位优势为其经济发展和城市建设提供了巨大的发展空间。他衷心期望两市进一步密切交流联系，加强多领域多层次多形式的务实合作，在推动高质量发展进程中实现互利共赢。', '在合肥市学习考察期间，考察团一路走、一路学，收获颇丰。大家纷纷表示，通过此次学习考察，进一步解放了思想、开拓了视野。下一步将以“激情干事业、挑战不可能”的精神状态积极主动作为，为全面建设“五个廊坊”、争当“三个排头兵”作出新的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>12</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>我市党政代表团赴雄安新区学习考察并调研检查雄安绿博园廊坊园等建设情况</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2020-04-14</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/96801.aspx</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['我市党政代表团赴雄安新区学习考察并调研检查雄安绿博园廊坊园等建设情况 - 廊坊市人民政府', '在雄安新区设立三周年之际，4月12日，市委书记冯韶慧，市委副书记、市长赵革率领廊坊市党政代表团，就深入贯彻落实习近平总书记关于雄安新区规划建设和生态文明建设的重要指示批示精神和加快推动省委、省政府决策部署落地落实，赴雄安新区学习考察生态建设等方面的先进经验和做法，并调研检查雄安绿博园廊坊园和京雄高铁生态廊道(霸州段)建设情况。', '省委常委、副省长，雄安新区党工委书记、管委会主任陈刚；雄安新区党工委副书记、管委会常务副主任，雄安集团党委书记、董事长田金昌；雄安新区党政办公室主任王纪平出席相关活动。市领导张金波、王凯军参加考察调研。', '在考察座谈会上，双方就全力做好生态共治、项目推进等工作进行深入对接交流。陈刚、冯韶慧分别讲话。', '陈刚代表雄安新区党工委、管委会，对廊坊市党政代表团来新区调研表示热烈欢迎，对廊坊市长期以来对雄安新区规划建设工作的无私支持表示衷心感谢。陈刚表示，自雄安新区宣布设立以来，廊坊始终坚持正确的政治站位，对新区给予了大力支持和无私帮助，尤其是新区设立后对与新区接壤区域的严格管控，更是为新区的起步建设提供了稳定和谐的周边环境。下一步，双方要以绿博园建设、重要路网建设及白洋淀流域水生态提升为重点，加强廊坊园、京雄高速、京德高速、荣乌高速新线等重点项目建设及白洋淀流域水环境质量管理，确保各项重点工程按既定时间有序推进。希望廊坊继续支持雄安新区建设发展工作，在生态治理、造林绿化、项目建设、科学管控等方面进一步加强合作，实现雄安新区和廊坊共同发展、共同成长、共同打造高质量发展的全国样板，为优质高效推动重大国家战略落实落地贡献力量。', '冯韶慧表示，雄安新区设立以来，廊坊市委、市政府坚持政治站位，坚决落实中央和省决策部署，积极主动服务新区建设，高标准推进雄安绿博园廊坊园建设和京雄高速、京德高速、荣乌高速新线等新区对外骨干路网建设，高质量做好规划、土地、产业、生态等工作，努力为雄安新区规划建设营造良好环境。下一步，廊坊将一如既往全力服务支持雄安新区规划建设，积极对标对表雄安的好经验、好做法，统筹推进疫情防控和经济社会发展工作，进一步加强生态建设，不断提高廊坊发展的质量和标准，加快实现与雄安新区错位、联动、融合发展，以廊坊之进努力为全省发展大局作出新的更大贡献。', '考察结束后，冯韶慧一行先后来到雄安绿博园廊坊园和京雄高铁生态廊道(霸州段)项目现场，实地调研检查项目建设情况，研究解决项目推进中的困难和问题。冯韶慧强调，要强化大局意识，提升廊坊标准，体现廊坊特色，打造廊坊速度，形成整体统一、亮点纷呈的优美景观，在雄安绿博园建设中走在全省前列。要提高项目质量，树立市场化运营思路，推进生态树种与经济树种相结合、生态景观与旅游休闲相结合，建立长效管护机制，积极发展林下经济，实现生态效益与经济效益双赢。要强化责任担当，要以“三创四建”活动为统领，抢抓春季大好时机，巩固国家森林城市创建成果，积极推进植树造林工作，按期完成国土绿化和生态廊道等造林任务，努力向省委、省政府和全市人民交上一份优异的答卷。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>我市党政代表团赴张家口学习考察</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2020-07-21</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/99724.aspx</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['7月20日，市委书记冯韶慧，市委副书记、市长赵革率党政代表团，就贯彻落实习近平总书记关于脱贫攻坚工作的重要指示精神和省委、省政府工作部署，赴张家口市开展对接交流，学习考察张家口在脱贫攻坚方面的好经验、好做法，继续扎实做好对口帮扶工作，进一步深化合作、携手共进，推进两地经济社会发展与脱贫攻坚实现双战双赢。', '张家口市委副书记、市长武卫东，市政协主席刘宝岐，市委常委、秘书长高峰，市人大常委会副主任、张北县委书记郝富国，市人大常委会副主任、沽源县委书记郭有和，市政府副市长、康保县委书记刘雪松出席活动。廊坊市委副书记李龙，市委常委、秘书长张金波，市委常委、三河市委书记詹晓阳，市政府副市长张秉舜，香河县、大厂回族自治县、固安县和市直有关部门负责同志参加学习考察。', '考察期间，我市党政代表团先后到化稍营镇桑阳牧业有限公司、揣骨疃镇易地扶贫搬迁集中安置区等地，详细了解产业扶贫项目、新民居建设情况，进一步对接帮扶需求，共谋深化产业合作举措。', '当天下午，廊坊、张家口两市举行工作交流座谈会。冯韶慧、武卫东分别讲话，赵革代表廊坊市委、市政府向张家口市捐赠了对口帮扶资金。张北、沽源、康保、尚义、阳原五个受援县负责同志分别汇报脱贫攻坚工作及廊坊市对口帮扶工作情况。', '冯韶慧指出，近年来，张家口市委、市政府坚决贯彻中央和省委、省政府决策部署，全市经济社会发展特别是冬奥会筹办、脱贫攻坚、生态建设方面取得了显著成绩，广大党员干部顽强拼搏、担当尽责、务实求实的精神值得廊坊干部认真学习。开展对口帮扶是必须完成好的政治任务和民生任务，廊坊将始终坚持带着责任、带着感情做好对口帮扶工作，进一步加大支持力度，完善工作机制，深化人才交流，动员社会力量参与，助力张家口如期高质量打赢脱贫攻坚战。张家口和廊坊都处在京津冀协同发展重大战略机遇带动之下，两地在资源禀赋、产业发展等方面有很大的互补性和广阔的合作空间。希望两地发挥各自优势，在体育文化基础设施建设和产业发展、特色农业、食品加工、文化旅游、清洁能源等方面开展深度对接合作，推动实现更加深入、更高水平的共赢发展。', '武卫东代表张家口市委、市政府和市委书记回建同志，向我市党政代表团表示热烈欢迎和衷心感谢。他指出，长期以来，廊坊市委、市政府深入贯彻落实习近平总书记重要指示精神和中央及省委、省政府决策部署，带着对张家口人民的深情厚谊，倾心帮扶张家口脱贫攻坚，投入了大量扶贫资金，开展了产业项目帮扶，深化了人才交流、社会帮扶，为张家口打好打赢脱贫攻坚战增添了强劲动力。他们将以此次考察为契机，进一步提高政治站位，以更大的力度、更务实的作风推进扶贫脱贫工作，持续巩固脱贫攻坚成果，全面提升各项工作水平。希望两市在引入市场主体、加强产业协同发展等方面进一步深化务实合作，推进脱贫攻坚有效衔接乡村振兴和新型城镇化发展。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>湖南省永州市人大常委会考察团来廊学习考察</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2021-05-21</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/110359.aspx</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['5月19日至21日，湖南省永州市人大常委会副主任周益志率考察团来我市就社区公共就业服务能力建设等就业创业工作的先进经验和做法进行学习考察。市人大常委会副主任陈洪波陪同考察。', '考察团一行先后到国家级充分就业社区广阳区瑞景社区和省级充分就业社区广阳区金星道社区、运通家园社区等进行了实地参观，听取了各社区公共就业服务能力建设情况介绍，翻阅了各项工作台账。考察团一边参观一边与社区工作人员进行交流，深入了解日常工作中有关就业援助岗位推荐、下岗失业人员培训、就业帮扶活动等情况。', '近年来，随着人民群众对基层公共就业服务能力需求量的不断增长，我市在推进基层服务平台建设、提升服务能力等方面下狠功夫，打造了1个国家级充分就业社区、40个省级充分就业社区。考察团对我市社区公共就业服务能力建设给予高度评价，表示要将我市社区公共就业服务能力建设中好的经验和做法带回去，结合本地实际加以推广，推动社区公共就业服务工作再上台阶。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>12</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>山西省晋城市文明城市学习考察团到廊坊考察</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2019-09-10</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/90905.aspx</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['9月9日，山西省晋城市委宣传部副部长、文明办主任王毅一行到我市，就文明城市创建经验做法进行交流学习。', '考察团首先参观了写有市创城办机构分布图、廊坊创城精神、2019年七大攻坚行动等内容的展板。随后考察了市创城办材料审核组、综合组、督导组、综合协调组等相关科室，以及安次区银河南路办事处亿合社区和市区丹凤公园。每到一处，大家都看得仔细、听得认真，详细了解了廊坊创建的总体情况、组织构成、文明社区创建、公共服务设施建设等方面的经验做法。', '交流会上，考察团一行听取了廊坊的市情、创建历程、特色活动的介绍，详细了解了档案材料的规范书写、常见问题和注意事项等。', '晋城市文明办副主任秦志刚介绍了晋城的市情、创建历程和取得的经验，同时表示，晋城高度重视文明城市创建工作，廊坊是目前参与创建的兄弟地市的先进典型，通过交流学习，对接下来的创建工作具有重要启发和现实意义，希望双方加强交流合作，共同进步。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>廊坊市党政代表团赴北京城市副中心学习考察</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2019-08-24</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/90468.aspx</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['8月23日，市委书记冯韶慧率廊坊市党政代表团到北京城市副中心学习考察，深入贯彻习近平总书记关于京津冀协同发展的重要指示要求，学习考察北京城市副中心规划建设，深度对接推进北京市与我市北三县签约的重点项目，推动中央和省委重大决策部署落地落实。', '北京市副市长，北京城市副中心党工委书记、管委会主任隋振江出席座谈会并讲话。通州区委书记，北京城市副中心党工委常务副书记、管委会常务副主任曾赞荣主持会议。通州区委副书记、区长，北京城市副中心党工委副书记、管委会副主任赵磊，我市领导贾永清、张金波、张春燕、王凯军出席相关活动。', '廊坊与通州地缘相接、人缘相亲，地域一体、往来密切，在推动京津冀协同发展方面，有着良好的合作基础。在召开的工作座谈会上，冯韶慧、赵磊、贾永清分别介绍了我市特别是北三县与通州区协同发展情况和北京城市副中心规划建设等情况。随后，双方就全力做好规划对接、政策落实、机制探索、交通互联、生态共治、项目推进等工作进行深入对接交流。', '隋振江对廊坊市党政代表团的到来表示热烈欢迎。他说，高标准规划建设北京城市副中心，已经成为疏导首都功能“一体两翼”的重要组成部分，这既是党中央赋予通州的重大政治责任，也是通州、廊坊两地共同承担的历史使命。希望双方建立更加高效的沟通协调机制，以更高的战略视野来审视和谋划区域协同，促进战略合作向纵深发展，同时严格落实统一规划、统一政策、统一标准、统一管控要求，通过政府引导、市场运作，推动交通、公共服务、产业等向廊坊北三县延伸布局，加强环境治理联防联控和生态建设协作，推动重点项目落地落实，携手推动京津冀区域协同发展取得更大突破。', '冯韶慧表示，建设北京城市副中心是以习近平同志为核心的党中央作出的重大决策部署，是疏解北京非首都功能、推动京津冀协同发展的重大战略举措。我们将积极学习借鉴北京城市副中心规划建设的好经验好做法，进一步提高政治站位、深化思想认识，自觉服从、主动融入北京城市副中心建设，坚决当好河北首都政治“护城河”排头兵。衷心希望与通州区在推进规划实施、交通设施建设、项目对接合作、生态环境治理、公共服务共建共享等方面开展深度对接，推动实现更加深入、更高水平的共赢发展，努力把北三县打造成为北京城市副中心的发展腹地、京津冀协同发展的“桥头堡”。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>我市党政考察团赴张家口学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2019-08-26</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/90485.aspx</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['8月24日，市委书记冯韶慧率廊坊市党政考察团，就贯彻落实习近平总书记有关脱贫攻坚、筹办北京冬奥会等重要指示精神和省委、省政府工作部署，赴张家口市开展对接交流和学习考察，对口帮扶张家口市打好精准脱贫攻坚战，学习该市在城市建设、脱贫攻坚、生态环境治理等方面的好经验好做法，努力推动我市经济社会高质量发展。', '张家口市委书记回建，市委副书记韩占山，市委常委、常务副市长郭英，市委常委、崇礼区委书记王彪，市委常委、秘书长、宣传部长张春生，市人大常委会副主任、张北县委书记郝富国出席相关活动。市委副书记、组织部长李龙，市委常委、廊坊开发区党工委书记王金忠，市委常委、秘书长张金波，副市长张秉舜，三河市、香河县、大厂回族自治县、固安县和市直有关部门负责同志参加学习考察。', '当天上午，考察团一行先后考察了北京冬奥会张家口赛区规划临时展厅、古杨树场馆群、太舞滑雪小镇，详细了解规划建设、场馆运营等情况，每到一地，大家都看得仔细、听得认真，深切感受文化旅游体育产业带来的经济效益和良好生态环境带给这座城市的青春活力。', '当天下午，廊坊、张家口两市举行工作交流座谈会。冯韶慧、回建分别讲话。李龙代表廊坊市委、市政府向张家口市捐赠了对口帮扶资金。郭英介绍了张家口市相关情况，王彪介绍了崇礼区相关情况，张北县、沽源县、尚义县、阳原县、康保县分别汇报了脱贫攻坚工作和廊坊市帮扶工作进展情况。', '冯韶慧表示，近年来，张家口市抢抓重大历史机遇，乘势而上，主动作为，高标准谋划和推进各项重点工作，迸发出蓬勃的发展活力，特别是在高标准推进冬奥会筹办、加强生态建设、提升城市建设水平等方面的实践中形成的思路、方法和路径值得廊坊认真学习和借鉴。在今后工作中，廊坊将深入落实省委、省政府工作要求，进一步完善工作机制，加大资金支持力度，强化项目合作，高质量完成帮扶任务。立足于廊坊民营经济较为发达的特点，进一步推动更多有实力、有情怀的民营企业到张家口发展，加强在特色农业、全域旅游、清洁能源等领域的合作，实现互相促进、优势互补、共赢发展。将主动服务、积极参与、全力以赴支持冬奥会筹办工作，推动张家口和廊坊在冰雪产业、竞技体育方面有更多务实合作。希望双方在现有基础上，建立常态化沟通联系机制，进一步加强交流合作，互相学习、互相促进，谱写合作共赢新篇章，为经济强省、美丽河北建设作出新的更大贡献。', '回建对廊坊市考察团的到来表示热烈欢迎，对廊坊长期以来给予张家口的大力支持表示衷心感谢。他说，省委、省政府作出对口帮扶张家口贫困县部署以来，廊坊市高度重视、高标准落实，充分体现了廊坊市委、市政府高度的政治自觉和对张家口人民的深情厚谊。当前，张家口正在深入学习贯彻习近平总书记系列重要指示精神，致力于交出冬奥会筹办和本地发展两份优异答卷，加快建设体育之城、活力之城、康养之城、文明之城、富强之城，努力走出一条绿色发展、生态强市、换道超车的新路。希望以此次考察为契机，进一步密切双方的对接联系，在考察交流、互动学习中增进情感、加深了解，在更深层次、更广领域、更大范围深化拓展合作，共同促进两地经济社会共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>我市文化旅游部门赴石学习考察</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2019-03-07</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/86336.aspx</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['2月26日至28日，廊坊市文化广电和旅游局组织各县(市、区)、廊坊开发区分管文化旅游的主要负责同志30余人，赴石家庄对标学习旅游产业发展大会办会经验，石家庄市和平山县、鹿泉县、正定县文化广电和旅游局应邀出席座谈交流活动。', '据了解，正定、鹿泉、平山分别承办过三届石家庄市旅游产业发展大会，拥有丰富的办会经验。同时，石家庄承办2019年省文旅大会，开幕式在正定，主会场在平山，目前各项承办工作正在积极的谋划推进中。', '2月26日下午，市文广旅局在平山县组织召开了“2019廊坊市县文化和旅游产业发展大会专题培训”活动，河北省文化和旅游厅资源开发处处长丰春雷和河北省科学院地理所旅游室主任徐宁分别以“用好旅发大会平台，推动区域综合发展”“河北省旅游产业发展大会评估与思考”为主题，现场传授并交流了旅发大会的创办经验。', '在为期三天的学习时间里，廊坊学习考察团先后观摩了西柏坡文旅小镇、鸿润庄园、李家庄、红崖谷等业态项目，并与石家庄市文广旅局和平山县有关部门领导召开了经验座谈交流会；参观了土门关驿道小镇，鹿泉区在经验交流会上重点分享了环境治理和公共服务设施建设等方面经验；实地考察了正定古城亮化及公共服务设施、荣国府、隆兴寺、塔元庄等项目，正定县重点分享了通过承办旅发大会，对域内所有景区进行精心包装，进一步提升景区内外环境等丰富经验。', '通过为期三天的集中对标学习交流与实地观摩考察，与会人员对廊坊市、县文旅大会的意义和社会影响有了深刻认识。参训人员纷纷表示，在2019年廊坊市、县两级文旅大会和文旅深度融合的工作中，将紧密结合本次所学所得，办好廊坊文旅大会、做好文旅深度融合工作。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>广东省惠州市人大常委会考察团到我市学习考察</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2019-04-25</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/87655.aspx</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['4月22日至23日，广东省惠州市 人大常委会副主任 陈力强 一行12人到我市学习考察 综合交通规划、城市规划 与空间布局等方面的经验、做法 。 市人大常委会副主任王相仁陪同参加相关活动。', '考察团一行参观了廊坊市规划展示馆，实地考察了丹凤公园、机场北线高速施工现场，并 召开座谈会，分别听取了 市自然资源和规划局、 市交通运输局、 市机场办关于廊坊市城市规划与空间布局、综合交通规划、北京大兴国际机场及临空经济区规划建设等情况的介绍 ，并就如何开展好人大监督工作进行了座谈交流 。', '考察团一行对我市各项工作给予了高度赞扬,并表示 惠州 市 作为粤港澳大湾区的 重要节点 城市 ，与廊坊市在京津冀协同发展中的优势和机遇有很多相似之处，希望在今后的发展中加强人大工作的深度交流，积极助力两地经济社会发展进步。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>新疆阿克苏宣传系统领导到我社学习考察</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2019-02-28</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/86144.aspx</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['2月27日，新疆阿克苏地委宣传部副部长、阿克苏日报社党委书记、总编辑张文远一行来到廊坊日报社，就融媒体建设方面等有关经验进行考察交流。', '考察团一行先后参观了廊坊日报社办公楼一楼大厅云报屏、评报栏以及全媒体中央控制室、导播室，在全媒体中央控制室现场观看了“中央厨房”式的全媒体采编流程，现场体验了新媒体直播，并与正在现场采访的记者连线进行视频交流。每到一处，考察团都认真参观，并与相关负责人进行深入交流。通过参观交流，考察团一行对廊坊日报社全媒体矩阵有了深刻、系统的认识，对廊坊日报社在媒体融合方面所做的探索实践和创新发展成果给予好评。大家纷纷表示，廊坊日报社在媒体融合发展的道路上，理念先进，代表了报业融合发展的方向，值得学习。', '在随后召开的座谈会上，考察团听取了廊坊日报社媒体融合发展成果介绍。廊坊日报社党委书记、社长孟繁彪介绍了廊坊日报社近三年来媒体融合的发展历程。他表示，媒体融合发展是大势所趋，转型升级是必由之路，廊坊日报社加大媒体融合基础设施建设，不断加强媒体融合背景下的采编队伍建设，使廊坊日报社在媒体质量、经营收入、发展规模等方面都有了很大提升。', '张文远表示：“此次考察我们收获颇丰，廊坊日报社如今走在河北省甚至全国前列，是多家媒体学习的榜样，在经营创收以及融媒体建设等方面的探索，对同行业媒体融合发展、经营转型升级具有重要启发和现实意义。”']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>我市党政代表团赴北京市通州区学习考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2018-10-15</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/82806.aspx</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['10月13日，市委书记冯韶慧，市委副书记、市长陈平率廊坊市党政代表团到北京市通州区学习考察，深入贯彻习近平总书记关于京津冀协同发展的重要指示要求，深度对接沟通北三县与通州区在统一规划、统一政策、统一标准、统一管控等方面工作，推动中央和省委重大决策部署落地落实。', '通州区委书记曾赞荣，区委副书记、区长赵磊，区委副书记初军威，区委常委、政法委书记、常务副区长刘贵明，副区长阳波；我市领导贾永清、张金波、王凯军出席相关活动。', '廊坊与通州地缘相接、人缘相亲，地域一体、往来密切，在推动京津冀协同发展方面，有着良好的合作基础。在召开的工作座谈会上，赵磊、贾永清分别介绍了两地经济社会发展情况和京津冀区域协同发展相关工作情况。随后，双方就全力做好规划对接、政策落实、机制探索、交通互联、生态共治、产业合作等工作进行深入对接交流。', '冯韶慧高度赞扬了通州区在推动京津冀协同发展、北京城市副中心规划建设方面取得的显著成绩和宝贵经验。他表示，京津冀协同发展是习近平总书记亲自谋划、亲自推动的重大国家战略，为廊坊提供了千载难逢的发展机遇。特别是当前，北三县与通州区整合规划工作加速推进，两地交流合作的基础更加扎实、条件更加成熟、前景更加广阔。我们将积极学习借鉴通州区的好经验好做法，进一步提高政治站位、深化思想认识，严格落实统一规划、统一政策、统一标准、统一管控要求，自觉服从、主动融入北京城市副中心建设，坚决当好河北首都政治护城河“排头兵”。衷心希望与通州区在规划编制衔接、交通互联互通、产业协同合作、生态共建共享等方面开展深度对接，建立完善各层级沟通协调机制，在服务国家发展大局中共同推动两地经济社会高质量发展。', '曾赞荣对廊坊市党政代表团的到来表示热烈欢迎，对长期以来给予通州区的关心支持表示衷心感谢。他说，高标准规划建设北京城市副中心，已经成为疏导首都功能“一体两翼”的重要组成部分，这既是党中央赋予通州的重大政治责任，也是通州、廊坊两地共同承担的历史使命。希望双方建立更加高效的沟通协调机制，通过政府引导、市场运作，推动交通、公共服务、产业等向廊坊北三县延伸布局，加强环境治理联防联控和生态建设协作，携手推动京津冀区域协同发展取得更大突破。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>12</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>清远市人大学习考察组来我市考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2018-09-14</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/82136.aspx</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['9月13日，广东省清远市人大常委会副主任郑远平一行来我市，就大气污染防治条例立法进行学习考察。市人大常委会副主任邵二玲出席座谈会。', '座谈会上，市环保局相关负责人介绍了近年来我市针对大气污染防治工作出台的相关政策措施及成效；市人大常委会法工委相关负责人介绍了我市人大立法情况及经验做法，并就清远市人大学习考察组一行提出的相关问题进行交流。', '清远市人大学习考察组一行高度评价了我市大气污染防治情况及立法相关工作。他们表示，将以此次考察学习为契机，不断加强两市在地方立法方面的沟通与交流。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>12</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>省委宣传部文化事业产业发展处来我社学习考察</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2018-07-28</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/80945.aspx</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['7月27日，省委宣传部文化事业产业发展处处长袁宝东一行来廊坊日报社就新闻改革、融媒体建设及运营模式、报业经营管理等方面的先进经验进行学习考察交流。', '考察中，袁宝东一行先后参观了廊坊日报社办公楼一楼大厅报社文化展览、廊坊日报社云报屏、评报栏以及全媒体中央控制室、活动演播室，在全媒体中央控制室现场体验了“中央厨房”式全媒体采编流程，并与正在现场采访的一线记者连线进行视频交流。座谈会上，廊坊日报社就融合成果做分享，考察团听取了廊坊日报社经营活动推介情况介绍，观看了廊坊日报社融合转型专题片《腾飞》。', '袁宝东对报社事业发展取得的成绩给予充分肯定。他表示，廊坊日报社近几年发展迅速，在加快报业融合发展、经营转型升级，全力打造系列新媒体方面开辟了一条新路，很值得学习和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>我市党政代表团赴雄安新区学习考察</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2018-08-09</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/81218.aspx</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['全力服从服务 借势借力发展 我市党政代表团赴雄安新区学习考察 陈刚冯韶慧刘宝玲陈平等出席相关活动', '8月8日，市委书记冯韶慧，市委副书记、市长陈平率领廊坊市党政代表团，就贯彻落实习近平总书记关于京津冀协同发展、雄安新区规划建设和生态文明建设的重要指示批示精神，加快推动省委、省政府决策部署落地落实，赴雄安新区开展学习考察，就承接北京非首都功能、完善交通路网规划建设、推进生态共建共享、加强产业协同协作等方面进行深入对接交流，全力服务支持雄安新区规划建设，借势借力推动廊坊经济社会发展，奋力开创新时代加快建设经济强市、美丽廊坊新局面。', '省委常委、副省长，雄安新区党工委书记、管委会主任陈刚，雄安新区党工委副书记、管委会常务副主任刘宝玲，雄安新区党工委委员、管委会副主任、改革发展局局长吴海军，雄安新区党群工作部部长牛景峰，省雄安办副主任、省发改委副巡视员、雄安新区党政办主任王纪平陪同考察或出席座谈会。市领导张金波、杨培苏、张春燕、王凯军，固安县、霸州市、文安县、大城县和市直有关部门负责同志，与雄安新区接壤的乡镇负责同志参加学习考察。', '廊坊与雄安新区地缘相接、人缘相亲，习近平总书记亲自谋划推动京津冀协同发展，把两地更加紧密地联系在一起。冯韶慧、陈平等代表团成员一到雄安新区，就实地考察了千年秀林九号地块植树造林点、白洋淀新安北堤木栈道、雄安市民服务中心、雄安展示中心、凯骊酒店、企业联合办公区、政务服务中心等。每到一地，大家都看得仔细、听得认真，详细了解城市规划建设、产业对接协作、生态文明建设、优化营商环境等方面的先进理念和经验做法。雄安新区的蓬勃发展生机、经济发展活力、规划建设成效给代表团成员留下了深刻印象。', '在随后召开的工作交流座谈会上，双方就加强深度对接、携手共促发展进行深入交流。陈刚、冯韶慧分别讲话。刘宝玲介绍了雄安新区的整体工作情况。', '陈刚代表雄安新区党工委、管委会和新区人民向廊坊市党政代表团表示热烈欢迎，对廊坊市给予雄安新区的大力支持表示衷心感谢。他指出，雄安新区设立以来，规划建设工作得到了廊坊的大力支持，充分体现了廊坊市委、市政府践行“四个意识”、落实“两个维护”的政治自觉、思想自觉、行动自觉。在今后的工作中，两地要做好规划协同，将雄安新区与廊坊周边接壤地区统筹谋划、通盘考虑，真正实现一体规划、一体建设、一体发展。要做好交通协同，积极推进轨道交通、高速公路建设，加快构建廊坊中南部与雄安新区的互联互通交通网络。要做好产业协同，从功能定位和产业需求入手，精准布局、明确重点，充分发挥比较优势，实现分工协作、错位发展。要做好生态协同，深化在生态环境方面的联防联控联治，共同推进大气、水、土壤等污染治理实现新突破。要做好防洪协同，加强两地相关部门、上下游区域的沟通协调，形成应急响应、联合行动的防洪减灾工作合力。衷心祝愿两地相互融合、相得益彰，携手开创协同发展的崭新局面。', '冯韶慧说，设立河北雄安新区，是以习近平同志为核心的党中央深入推进京津冀协同发展作出的一项重大决策部署，是千年大计、国家大事，为廊坊提供了千载难逢的发展机遇。特别是，雄安新区设立后短短一年时间，规划建设标准高、解决问题思路活、推进工作力度大、取得成效显著，充分体现了雄安质量、雄安速度。对于这些好经验、好做法、好作风，廊坊会积极对标学习，充分吸收借鉴。下一步，廊坊全市上下将进一步提高政治站位，把服从服务、全力支持雄安新区规划建设，作为践行“四个意识”、落实“两个维护”的现实检验，不折不扣贯彻落实规划、土地、产业、生态等各项管控措施，为雄安新区建设营造良好环境。同时，希望与雄安新区加强合作，在规划协同、交通协同、产业协同、生态协同、防洪协同等方面开展深度对接，不断拓展合作领域、丰富合作内容、深化合作成果，借势借力推动廊坊实现创新发展、绿色发展、高质量发展，努力以廊坊之进为新时代全面建设经济强省、美丽河北作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>新疆巴音郭楞蒙古自治州政协来廊学习考察</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2018-04-21</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.lf.gov.cn/Item/77933.aspx</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['4月18日至20日，新疆巴音郭楞蒙古自治州政协党组成员、秘书长陈刚率巴州考察团一行20人，到我市就“深入贯彻落实党的十九大精神，不断提升政协履职水平，进一步加强政协‘两个队伍’建设情况”进行考察交流。市政协副主席周廷生会见了考察团成员，秘书长徐长茂陪同考察并主持交流座谈会。', '座谈会上，徐长茂对巴州考察团一行的到来表示热烈欢迎，围绕独特区位优势、人文自然资源、经济社会成就、未来发展前景等方面介绍了我市的基本情况，并简要介绍了市政协的基本情况。市政协相关专委会负责同志分别就助推我市产业园区创新发展，挖掘廊坊历史文化资源、助推文化体验城市建设，推进我市职业教育发展等主题与考察团成员进行了互动交流。', '陈刚对廊坊给予巴州焉耆县的对口援助表示衷心感谢，对我市经济社会发展和市政协取得的成效予以高度评价。并表示将认真吸纳廊坊的好经验、好做法，进一步解放思想、创新举措，力争实现巴州经济社会和政协事业又好又快发展。', '考察团一行参观了华为技术有限公司，新奥智慧企业运营中心、泛能数字中心、煤基能源国家重点实验室、新绎七修书院，京津冀大数据创新应用中心，并赴固安县、大厂回族自治县、香河县进行实地考察。']</t>
         </is>
